--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,7 +425,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45324.60191683462</v>
+        <v>45324.60191684028</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -436,6 +436,1574 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45325.20838640047</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45325.2500375</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45326.20836583334</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45326.25003144676</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45327.20836078704</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45327.2687077662</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45327.31170688657</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45328.20836333334</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45328.25003054398</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45329.20836839121</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45329.25003118056</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45330.20836351852</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45330.25003090278</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45331.20835931713</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45331.25003141204</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45332.20836592592</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45332.25003571759</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45333.20836388889</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45334.20836195601</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45334.25003034722</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45336.20836334491</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45336.25002469907</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45338.20836379629</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45338.25002494213</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45340.2083669213</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45340.25003462963</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45341.20836380787</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45341.25003640047</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45342.208368125</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45342.25003462963</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45343.208361875</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45343.25003456019</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45344.20836203704</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45344.25003054398</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45345.2083737963</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45345.25003638889</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45348.20837752314</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45348.25002737268</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45350.29671668982</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45350.38261563657</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45353.20837333333</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45353.25003270833</v>
+      </c>
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45354.20836304398</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45354.25003313657</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45355.2083705324</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45355.25003543981</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45365.3828358912</v>
+      </c>
+      <c r="B52">
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45365.40771079861</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45371.20836796296</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45371.25002788194</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45372.20837237268</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45372.25003811343</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45373.20836864584</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45373.25003023148</v>
+      </c>
+      <c r="B59">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45379.20836502315</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45379.25002693287</v>
+      </c>
+      <c r="B61">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45380.20836418981</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45380.25002862269</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45381.20836922454</v>
+      </c>
+      <c r="B64">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45381.25002853009</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>45384.3724884375</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>45384.38518969907</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>45385.20837806713</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>45385.25003282407</v>
+      </c>
+      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>45386.2083719213</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>45386.25003844907</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>45391.2083671875</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>45391.25002731482</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>45392.20836325231</v>
+      </c>
+      <c r="B74">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>45392.25002229167</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>45394.20835909722</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>45394.25002935185</v>
+      </c>
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>45395.30121754629</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>45395.33529287037</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>45396.20837171296</v>
+      </c>
+      <c r="B80">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>45396.25003589121</v>
+      </c>
+      <c r="B81">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>45397.20837736111</v>
+      </c>
+      <c r="B82">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>45397.25003710648</v>
+      </c>
+      <c r="B83">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>45398.20837553241</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>45398.25003362268</v>
+      </c>
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>45399.20836653935</v>
+      </c>
+      <c r="B86">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>45400.20836869213</v>
+      </c>
+      <c r="B87">
+        <v>23</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>45400.25002967592</v>
+      </c>
+      <c r="B88">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>45401.20836197917</v>
+      </c>
+      <c r="B89">
+        <v>23</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>45401.25002798611</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>45402.20836331019</v>
+      </c>
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>45402.2500300463</v>
+      </c>
+      <c r="B92">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>45403.20836320602</v>
+      </c>
+      <c r="B93">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>45403.25002537037</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>45405.20835831018</v>
+      </c>
+      <c r="B95">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>45405.25002670139</v>
+      </c>
+      <c r="B96">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>45406.20835916667</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>45406.25003225694</v>
+      </c>
+      <c r="B98">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>45407.20835974537</v>
+      </c>
+      <c r="B99">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>45407.25003241898</v>
+      </c>
+      <c r="B100">
+        <v>18</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>45409.20836024306</v>
+      </c>
+      <c r="B101">
+        <v>23</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>45409.25003261575</v>
+      </c>
+      <c r="B102">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>45415.33571663183</v>
+      </c>
+      <c r="B103">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
         </is>
       </c>
     </row>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>45415.33571663183</v>
+        <v>45415.33571663195</v>
       </c>
       <c r="B103">
         <v>24</v>
@@ -2004,6 +2004,22 @@
       <c r="D103" t="inlineStr">
         <is>
           <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>45415.45562327765</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
         </is>
       </c>
     </row>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>45415.45562327765</v>
+        <v>45415.45562327546</v>
       </c>
       <c r="B104">
         <v>13</v>
@@ -2018,6 +2018,422 @@
         <v>103</v>
       </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>45416.20838724537</v>
+      </c>
+      <c r="B105">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>45416.25003634259</v>
+      </c>
+      <c r="B106">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>45419.76492278936</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>45419.79642315972</v>
+      </c>
+      <c r="B108">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>45421.20837444445</v>
+      </c>
+      <c r="B109">
+        <v>24</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>45421.25003126157</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>45423.20836123843</v>
+      </c>
+      <c r="B111">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>45423.25003155092</v>
+      </c>
+      <c r="B112">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>45424.20836049768</v>
+      </c>
+      <c r="B113">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>45424.25003152777</v>
+      </c>
+      <c r="B114">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>113</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>45425.20835943287</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>45425.25003184027</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>115</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>45426.20835934028</v>
+      </c>
+      <c r="B117">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>45429.20836395833</v>
+      </c>
+      <c r="B118">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>45429.25002795139</v>
+      </c>
+      <c r="B119">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>45434.20836760417</v>
+      </c>
+      <c r="B120">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>45434.25002866898</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>45435.20836806713</v>
+      </c>
+      <c r="B122">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>45435.25002884259</v>
+      </c>
+      <c r="B123">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>45436.20836674768</v>
+      </c>
+      <c r="B124">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>45436.25002869213</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>45437.2083716551</v>
+      </c>
+      <c r="B126">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>45437.25002956019</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>126</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>45438.20837232639</v>
+      </c>
+      <c r="B128">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>127</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>45443.31092480324</v>
+      </c>
+      <c r="B129">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>128</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>45443.33009739109</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>data upload routine run</t>
         </is>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>45443.33009739109</v>
+        <v>45443.33009739583</v>
       </c>
       <c r="B130">
         <v>13</v>
@@ -2434,6 +2434,54 @@
         <v>129</v>
       </c>
       <c r="D130" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>45524.55052809028</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>130</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>45525.31197869213</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>45525.33312254546</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>132</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>data upload routine run</t>
         </is>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>45525.33312254546</v>
+        <v>45525.3331225463</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -2482,6 +2482,662 @@
         <v>132</v>
       </c>
       <c r="D133" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>45526.20836293981</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>45527.20836636574</v>
+      </c>
+      <c r="B135">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>45530.35098496528</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>135</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45530.36044244213</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>136</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45531.20837479166</v>
+      </c>
+      <c r="B138">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <v>137</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45531.25002582176</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+      <c r="C139">
+        <v>138</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45534.20836173611</v>
+      </c>
+      <c r="B140">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>139</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45534.25003196759</v>
+      </c>
+      <c r="B141">
+        <v>11</v>
+      </c>
+      <c r="C141">
+        <v>140</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45535.20837246528</v>
+      </c>
+      <c r="B142">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>141</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45535.25003196759</v>
+      </c>
+      <c r="B143">
+        <v>11</v>
+      </c>
+      <c r="C143">
+        <v>142</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45536.20836104167</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>143</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45536.25003276621</v>
+      </c>
+      <c r="B145">
+        <v>12</v>
+      </c>
+      <c r="C145">
+        <v>144</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45537.20836913194</v>
+      </c>
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45537.25003200232</v>
+      </c>
+      <c r="B147">
+        <v>12</v>
+      </c>
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45539.20836886574</v>
+      </c>
+      <c r="B148">
+        <v>16</v>
+      </c>
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45539.25002896991</v>
+      </c>
+      <c r="B149">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>148</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>45540.208373125</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+      <c r="C150">
+        <v>149</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>45540.25002913194</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>45541.2083690625</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152">
+        <v>151</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>45541.25003106482</v>
+      </c>
+      <c r="B153">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>152</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>45542.20835748842</v>
+      </c>
+      <c r="B154">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>45542.25002945602</v>
+      </c>
+      <c r="B155">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>154</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>45543.20835835648</v>
+      </c>
+      <c r="B156">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>45543.25002930556</v>
+      </c>
+      <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>156</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>45545.20835800926</v>
+      </c>
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>157</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>45545.25002925926</v>
+      </c>
+      <c r="B159">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>158</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>45548.20836071759</v>
+      </c>
+      <c r="B160">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>159</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>45548.25002961805</v>
+      </c>
+      <c r="B161">
+        <v>12</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>45549.20836212963</v>
+      </c>
+      <c r="B162">
+        <v>14</v>
+      </c>
+      <c r="C162">
+        <v>161</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>45549.25003114583</v>
+      </c>
+      <c r="B163">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>162</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>45550.20836379629</v>
+      </c>
+      <c r="B164">
+        <v>14</v>
+      </c>
+      <c r="C164">
+        <v>163</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>45563.43643072917</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>164</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>45563.44043600695</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>165</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>45564.20837105325</v>
+      </c>
+      <c r="B167">
+        <v>14</v>
+      </c>
+      <c r="C167">
+        <v>166</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>45564.25002371528</v>
+      </c>
+      <c r="B168">
+        <v>16</v>
+      </c>
+      <c r="C168">
+        <v>167</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>45565.20836424769</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>168</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>45565.25002733796</v>
+      </c>
+      <c r="B170">
+        <v>16</v>
+      </c>
+      <c r="C170">
+        <v>169</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>45567.20835993056</v>
+      </c>
+      <c r="B171">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>170</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>45567.25003180555</v>
+      </c>
+      <c r="B172">
+        <v>16</v>
+      </c>
+      <c r="C172">
+        <v>171</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>45569.20836359954</v>
+      </c>
+      <c r="B173">
+        <v>14</v>
+      </c>
+      <c r="C173">
+        <v>172</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>45569.25003233949</v>
+      </c>
+      <c r="B174">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <v>173</v>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>data upload routine run</t>
         </is>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>45569.25003233949</v>
+        <v>45569.25003233796</v>
       </c>
       <c r="B174">
         <v>18</v>
@@ -3138,6 +3138,342 @@
         <v>173</v>
       </c>
       <c r="D174" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>45581.20835949075</v>
+      </c>
+      <c r="B175">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>174</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>45581.25003777778</v>
+      </c>
+      <c r="B176">
+        <v>17</v>
+      </c>
+      <c r="C176">
+        <v>175</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>45582.20836586806</v>
+      </c>
+      <c r="B177">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>176</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>45582.25003737269</v>
+      </c>
+      <c r="B178">
+        <v>17</v>
+      </c>
+      <c r="C178">
+        <v>177</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>45590.20835884259</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179">
+        <v>178</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>45590.25003090278</v>
+      </c>
+      <c r="B180">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>179</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>45591.20836034723</v>
+      </c>
+      <c r="B181">
+        <v>16</v>
+      </c>
+      <c r="C181">
+        <v>180</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>45591.25003228009</v>
+      </c>
+      <c r="B182">
+        <v>15</v>
+      </c>
+      <c r="C182">
+        <v>181</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>45592.20835958333</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+      <c r="C183">
+        <v>182</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>45595.20836870371</v>
+      </c>
+      <c r="B184">
+        <v>16</v>
+      </c>
+      <c r="C184">
+        <v>183</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>45595.25002704861</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="C185">
+        <v>184</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>45597.20837697916</v>
+      </c>
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186">
+        <v>185</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>45597.25003621528</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+      <c r="C187">
+        <v>186</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>45602.20836996527</v>
+      </c>
+      <c r="B188">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>187</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>45602.25002809028</v>
+      </c>
+      <c r="B189">
+        <v>17</v>
+      </c>
+      <c r="C189">
+        <v>188</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>45603.20836979167</v>
+      </c>
+      <c r="B190">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>189</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>45603.25003009259</v>
+      </c>
+      <c r="B191">
+        <v>17</v>
+      </c>
+      <c r="C191">
+        <v>190</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>45604.20837775463</v>
+      </c>
+      <c r="B192">
+        <v>16</v>
+      </c>
+      <c r="C192">
+        <v>191</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>45604.25003083333</v>
+      </c>
+      <c r="B193">
+        <v>17</v>
+      </c>
+      <c r="C193">
+        <v>192</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>45617.48166010417</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>193</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>45617.48600830761</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>194</v>
+      </c>
+      <c r="D195" t="inlineStr">
         <is>
           <t>data upload routine run</t>
         </is>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>45617.48600830761</v>
+        <v>45617.48600831018</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -3476,6 +3476,374 @@
       <c r="D195" t="inlineStr">
         <is>
           <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>45625.20837585648</v>
+      </c>
+      <c r="B196">
+        <v>16</v>
+      </c>
+      <c r="C196">
+        <v>195</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>45625.25002672453</v>
+      </c>
+      <c r="B197">
+        <v>14</v>
+      </c>
+      <c r="C197">
+        <v>196</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>45626.20837983796</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="C198">
+        <v>197</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>45626.25002916667</v>
+      </c>
+      <c r="B199">
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <v>198</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>45627.20837605324</v>
+      </c>
+      <c r="B200">
+        <v>17</v>
+      </c>
+      <c r="C200">
+        <v>199</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>45627.25002671297</v>
+      </c>
+      <c r="B201">
+        <v>14</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>45628.20836855324</v>
+      </c>
+      <c r="B202">
+        <v>17</v>
+      </c>
+      <c r="C202">
+        <v>201</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>45628.25002775464</v>
+      </c>
+      <c r="B203">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <v>202</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>45629.20837592593</v>
+      </c>
+      <c r="B204">
+        <v>17</v>
+      </c>
+      <c r="C204">
+        <v>203</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>45629.25002675925</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>204</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>45632.20837971065</v>
+      </c>
+      <c r="B206">
+        <v>18</v>
+      </c>
+      <c r="C206">
+        <v>205</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>45632.25002949074</v>
+      </c>
+      <c r="B207">
+        <v>22</v>
+      </c>
+      <c r="C207">
+        <v>206</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>45633.20838087963</v>
+      </c>
+      <c r="B208">
+        <v>18</v>
+      </c>
+      <c r="C208">
+        <v>207</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>45633.25002947917</v>
+      </c>
+      <c r="B209">
+        <v>22</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>45634.20837737268</v>
+      </c>
+      <c r="B210">
+        <v>18</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>45634.25003189815</v>
+      </c>
+      <c r="B211">
+        <v>24</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>45637.20836894675</v>
+      </c>
+      <c r="B212">
+        <v>18</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>45637.25002804399</v>
+      </c>
+      <c r="B213">
+        <v>23</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>45639.20838795139</v>
+      </c>
+      <c r="B214">
+        <v>38</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>45640.20839202547</v>
+      </c>
+      <c r="B215">
+        <v>29</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>45641.20837972222</v>
+      </c>
+      <c r="B216">
+        <v>45</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>45642.20837444445</v>
+      </c>
+      <c r="B217">
+        <v>19</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>45643.20836854519</v>
+      </c>
+      <c r="B218">
+        <v>19</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
         </is>
       </c>
     </row>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>45643.20836854519</v>
+        <v>45643.20836854167</v>
       </c>
       <c r="B218">
         <v>19</v>
@@ -3844,6 +3844,246 @@
       <c r="D218" t="inlineStr">
         <is>
           <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>45647.20836179398</v>
+      </c>
+      <c r="B219">
+        <v>20</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>45648.20837060185</v>
+      </c>
+      <c r="B220">
+        <v>19</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>45649.20836278935</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>45650.2083684838</v>
+      </c>
+      <c r="B222">
+        <v>21</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>45651.20836748843</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>45652.31343435185</v>
+      </c>
+      <c r="B224">
+        <v>22</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>45652.36286343751</v>
+      </c>
+      <c r="B225">
+        <v>21</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>45653.25002881944</v>
+      </c>
+      <c r="B226">
+        <v>27</v>
+      </c>
+      <c r="C226">
+        <v>225</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>45654.25003179398</v>
+      </c>
+      <c r="B227">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>226</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>45655.25002790509</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228">
+        <v>227</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>45656.20837372685</v>
+      </c>
+      <c r="B229">
+        <v>21</v>
+      </c>
+      <c r="C229">
+        <v>228</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>45656.25002795139</v>
+      </c>
+      <c r="B230">
+        <v>27</v>
+      </c>
+      <c r="C230">
+        <v>229</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>45657.29195546296</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>45663.45297369212</v>
+      </c>
+      <c r="B232">
+        <v>26</v>
+      </c>
+      <c r="C232">
+        <v>231</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>45663.51798845842</v>
+      </c>
+      <c r="B233">
+        <v>52</v>
+      </c>
+      <c r="C233">
+        <v>232</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
         </is>
       </c>
     </row>

--- a/schedule/log_schedule.xlsx
+++ b/schedule/log_schedule.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>45663.51798845842</v>
+        <v>45663.51798846065</v>
       </c>
       <c r="B233">
         <v>52</v>
@@ -4082,6 +4082,198 @@
         <v>232</v>
       </c>
       <c r="D233" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>45664.20836731482</v>
+      </c>
+      <c r="B234">
+        <v>24</v>
+      </c>
+      <c r="C234">
+        <v>233</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>45664.25002535879</v>
+      </c>
+      <c r="B235">
+        <v>55</v>
+      </c>
+      <c r="C235">
+        <v>234</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>45666.20837023148</v>
+      </c>
+      <c r="B236">
+        <v>22</v>
+      </c>
+      <c r="C236">
+        <v>235</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>45667.20837258102</v>
+      </c>
+      <c r="B237">
+        <v>21</v>
+      </c>
+      <c r="C237">
+        <v>236</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>45667.25003554398</v>
+      </c>
+      <c r="B238">
+        <v>27</v>
+      </c>
+      <c r="C238">
+        <v>237</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>45668.20837042824</v>
+      </c>
+      <c r="B239">
+        <v>22</v>
+      </c>
+      <c r="C239">
+        <v>238</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>45668.25003585649</v>
+      </c>
+      <c r="B240">
+        <v>27</v>
+      </c>
+      <c r="C240">
+        <v>239</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>45669.20837008102</v>
+      </c>
+      <c r="B241">
+        <v>21</v>
+      </c>
+      <c r="C241">
+        <v>240</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>45669.250036875</v>
+      </c>
+      <c r="B242">
+        <v>27</v>
+      </c>
+      <c r="C242">
+        <v>241</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>data upload routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>45670.20843408565</v>
+      </c>
+      <c r="B243">
+        <v>40</v>
+      </c>
+      <c r="C243">
+        <v>242</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>45670.31682079861</v>
+      </c>
+      <c r="B244">
+        <v>39</v>
+      </c>
+      <c r="C244">
+        <v>243</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>data extract routine run</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>45670.34710911368</v>
+      </c>
+      <c r="B245">
+        <v>44</v>
+      </c>
+      <c r="C245">
+        <v>244</v>
+      </c>
+      <c r="D245" t="inlineStr">
         <is>
           <t>data upload routine run</t>
         </is>
